--- a/R/codebooks/D3_TD_variable_condition.xlsx
+++ b/R/codebooks/D3_TD_variable_condition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26815"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Seafile\Seafile\Mia Libreria\CVM\EHR_studies\Readiness\script_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{20E2FC20-952A-4925-978D-F45BA8EEE784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0D10A51-49D8-43DD-B08E-9474918EB557}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{20E2FC20-952A-4925-978D-F45BA8EEE784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9B7A6B3-E1FB-40A3-B53B-968984CF3C30}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
         <color rgb="FF444444"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>Only changes of status are recorded, with date of change. date when the condition changes; the components of the condition last 365 days if they are diagnosis, and 90 days if they are drug proxies; unique spells are created when the algorithm is 1 (if either a dianosis or a drug proxy is active), and the algorithm is reverted to values 0 whenever no component is active</t>
+      <t>Only changes of status are recorded, with date when the condition changes; the components of the condition last 365 days if they are diagnosis, and 90 days if they are drug proxies; unique spells are created when the algorithm is 1 (if either a dianosis or a drug proxy is active), and the algorithm is reverted to values 0 whenever no component is active</t>
     </r>
   </si>
   <si>
@@ -562,7 +562,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
@@ -1510,15 +1510,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1773,16 +1770,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1790,5 +1790,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}"/>
 </file>